--- a/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
+++ b/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Def</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Xp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -50,19 +46,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マジカ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アトルル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴレム</t>
+    <t>仮敵1</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮敵2</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮敵3</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮敵4</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DropPer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -396,14 +420,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -418,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.85">
@@ -426,19 +450,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.85">
@@ -446,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -458,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.85">
@@ -466,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -475,10 +499,10 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.85">
@@ -486,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -495,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
+++ b/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>DropPer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MinFloor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxFloor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appearance</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -417,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -444,8 +456,17 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>0</v>
       </c>
@@ -464,8 +485,17 @@
       <c r="F2">
         <v>100</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>1</v>
       </c>
@@ -484,8 +514,17 @@
       <c r="F3">
         <v>10</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>2</v>
       </c>
@@ -504,8 +543,17 @@
       <c r="F4">
         <v>50</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>3</v>
       </c>
@@ -523,6 +571,15 @@
       </c>
       <c r="F5">
         <v>30</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
+++ b/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>Appearance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Def</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -429,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -451,22 +455,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>0</v>
       </c>
@@ -477,25 +484,28 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>1</v>
       </c>
@@ -503,28 +513,31 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>2</v>
       </c>
@@ -532,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -541,19 +554,22 @@
         <v>3</v>
       </c>
       <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>3</v>
       </c>
@@ -567,18 +583,21 @@
         <v>6</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>50</v>
       </c>
     </row>

--- a/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
+++ b/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -598,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
+++ b/F+/Assets/Resources/DataTable/EnemyTable/EnemyTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -46,46 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仮敵1</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮敵2</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮敵3</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮敵4</t>
-    <rPh sb="0" eb="1">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DropPer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -103,6 +63,30 @@
   </si>
   <si>
     <t>Def</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラタロウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラエモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラマル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラヤマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トゲマル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タッキー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -455,22 +439,22 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.85">
@@ -478,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -490,16 +474,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -510,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -522,16 +506,16 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>50</v>
@@ -542,10 +526,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -554,16 +538,16 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>50</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -574,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -592,18 +576,82 @@
         <v>30</v>
       </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>30</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>